--- a/LOGS/10d82d00-b0ab-4898-adb9-49a07cd1c2a7/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/10d82d00-b0ab-4898-adb9-49a07cd1c2a7/main_page_service_output/notes_cropped_df.xlsx
@@ -25,13 +25,18 @@
     <sheet name="23__b76efa82-6607-34" sheetId="16" r:id="rId16"/>
     <sheet name="24__7fc9a95a-6a3b-3a" sheetId="17" r:id="rId17"/>
     <sheet name="24__1b919c0e-ff49-37" sheetId="18" r:id="rId18"/>
+    <sheet name="6__6f59657c-a0c1-361" sheetId="19" r:id="rId19"/>
+    <sheet name="7__6f59657c-a0c1-361" sheetId="20" r:id="rId20"/>
+    <sheet name="8__6f59657c-a0c1-361" sheetId="21" r:id="rId21"/>
+    <sheet name="8__18205f8e-5ef3-3c8" sheetId="22" r:id="rId22"/>
+    <sheet name="9__18205f8e-5ef3-3c8" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="721">
   <si>
     <t>10 Cash and cash equivalents</t>
   </si>
@@ -1909,6 +1914,291 @@
   </si>
   <si>
     <t>52683</t>
+  </si>
+  <si>
+    <t>6 Other Income</t>
+  </si>
+  <si>
+    <t>Foreign exchange gain</t>
+  </si>
+  <si>
+    <t>Dividend income Sales Commissions</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>7 Other Expenses</t>
+  </si>
+  <si>
+    <t>7176</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>1681</t>
+  </si>
+  <si>
+    <t>8972</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>3845</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>249570</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>100534</t>
+  </si>
+  <si>
+    <t>Foreign exchange loss</t>
+  </si>
+  <si>
+    <t>Loss on sale of fixed assets</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>8 Finance Income and Finance Expense</t>
+  </si>
+  <si>
+    <t>(48)</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>(6,857)</t>
+  </si>
+  <si>
+    <t>(90)</t>
+  </si>
+  <si>
+    <t>(4,469)</t>
+  </si>
+  <si>
+    <t>(11,416)</t>
+  </si>
+  <si>
+    <t>(46)</t>
+  </si>
+  <si>
+    <t>(182)</t>
+  </si>
+  <si>
+    <t>(91)</t>
+  </si>
+  <si>
+    <t>(273)</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Finance expense</t>
+  </si>
+  <si>
+    <t>Net financing (expenses/income recognised in profit and (loss)</t>
+  </si>
+  <si>
+    <t>15933</t>
+  </si>
+  <si>
+    <t>(18,436)</t>
+  </si>
+  <si>
+    <t>(2,503)</t>
+  </si>
+  <si>
+    <t>2848</t>
+  </si>
+  <si>
+    <t>(5,841)</t>
+  </si>
+  <si>
+    <t>(2,993)</t>
+  </si>
+  <si>
+    <t>7456</t>
+  </si>
+  <si>
+    <t>(5,844)</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>(3,401)</t>
+  </si>
+  <si>
+    <t>(1,570)</t>
+  </si>
+  <si>
+    <t>9 Income Tax Expense</t>
+  </si>
+  <si>
+    <t>Income tax recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Current period</t>
+  </si>
+  <si>
+    <t>Deferred tax</t>
+  </si>
+  <si>
+    <t>Adjustment for prior periods - current</t>
+  </si>
+  <si>
+    <t>Adjustment for prior periods deferred</t>
+  </si>
+  <si>
+    <t>Total income tax expense from continuing operations</t>
+  </si>
+  <si>
+    <t>Reconciliation of effective tax rate</t>
+  </si>
+  <si>
+    <t>Profit from continuing operations before income tax expense</t>
+  </si>
+  <si>
+    <t>Tax at the Australian tax rate of 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>Non assessable dividend income</t>
+  </si>
+  <si>
+    <t>expenses</t>
+  </si>
+  <si>
+    <t>Other amounts</t>
+  </si>
+  <si>
+    <t>Under / (Over) provided in prior periods</t>
+  </si>
+  <si>
+    <t>188990</t>
+  </si>
+  <si>
+    <t>4952</t>
+  </si>
+  <si>
+    <t>4902</t>
+  </si>
+  <si>
+    <t>203941</t>
+  </si>
+  <si>
+    <t>680523</t>
+  </si>
+  <si>
+    <t>204157</t>
+  </si>
+  <si>
+    <t>(877)</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>122934</t>
+  </si>
+  <si>
+    <t>45032</t>
+  </si>
+  <si>
+    <t>(4,754)</t>
+  </si>
+  <si>
+    <t>(28,798)</t>
+  </si>
+  <si>
+    <t>450956</t>
+  </si>
+  <si>
+    <t>135287</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>(970)</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60543</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>(98)</t>
+  </si>
+  <si>
+    <t>61241</t>
+  </si>
+  <si>
+    <t>442590</t>
+  </si>
+  <si>
+    <t>132777</t>
+  </si>
+  <si>
+    <t>(73,500)</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>18915</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>167324</t>
+  </si>
+  <si>
+    <t>50197</t>
+  </si>
+  <si>
+    <t>(30,000)</t>
   </si>
 </sst>
 </file>
@@ -5105,6 +5395,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" t="s">
+        <v>641</v>
+      </c>
+      <c r="E7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
@@ -5172,6 +5572,516 @@
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C10" t="s">
+        <v>703</v>
+      </c>
+      <c r="D10" t="s">
+        <v>712</v>
+      </c>
+      <c r="E10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C11" t="s">
+        <v>704</v>
+      </c>
+      <c r="D11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>687</v>
+      </c>
+      <c r="D12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C13" t="s">
+        <v>705</v>
+      </c>
+      <c r="D13" t="s">
+        <v>715</v>
+      </c>
+      <c r="E13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B14" t="s">
+        <v>697</v>
+      </c>
+      <c r="C14" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>690</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>694</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>711</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
